--- a/Python/Automation/Excel/data/2/C_Write.xlsx
+++ b/Python/Automation/Excel/data/2/C_Write.xlsx
@@ -126,6 +126,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="42"/>
   <chart>
     <title>
       <tx>
@@ -136,7 +137,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:t>Ice_Cream_Chart</a:t>
+              <a:t>Ice_Cream_Chart_Pie</a:t>
             </a:r>
           </a:p>
         </rich>
@@ -181,6 +182,89 @@
 </chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="42"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Ice_Cream_Chart_Bar</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <barChart>
+        <barDir val="col"/>
+        <grouping val="clustered"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'Sheet'!B1</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Sheet'!$A$2:$A$7</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Sheet'!$B$2:$B$7</f>
+            </numRef>
+          </val>
+        </ser>
+        <gapWidth val="150"/>
+        <axId val="10"/>
+        <axId val="100"/>
+      </barChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
@@ -190,7 +274,7 @@
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="5400000" cy="2700000"/>
+    <ext cx="3600000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
         <cNvPr id="1" name="Chart 1"/>
@@ -207,19 +291,41 @@
   </oneCellAnchor>
   <oneCellAnchor>
     <from>
-      <col>13</col>
+      <col>10</col>
       <colOff>0</colOff>
       <row>0</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="2705100" cy="2705100"/>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="2" name="Chart 2"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>8</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="1219200" cy="1219200"/>
     <pic>
       <nvPicPr>
-        <cNvPr id="2" name="Image 2" descr="Picture"/>
+        <cNvPr id="3" name="Image 3" descr="Picture"/>
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId3"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
